--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Cort-Sstr3.xlsx
@@ -561,7 +561,7 @@
         <v>0.008699966146666665</v>
       </c>
       <c r="R2">
-        <v>0.07829969531999999</v>
+        <v>0.07829969532</v>
       </c>
       <c r="S2">
         <v>1</v>
